--- a/ReportGenerator/Reports/Generated-Report-pork.xlsx
+++ b/ReportGenerator/Reports/Generated-Report-pork.xlsx
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98c64643-f2f2-44cb-83c4-02bdc099ce90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ebe4-b279-41c3-b91e-ebabfde2edab}">
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -887,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>143.30000000000001</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75">
@@ -2222,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1728c465-2896-47dd-b0f4-5329cdb85ffa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493571ed-1c6d-4a8b-9636-a05f675e3f92}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
